--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H2">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>54630.11705081173</v>
+        <v>2.545307280443999</v>
       </c>
       <c r="R2">
-        <v>491671.0534573056</v>
+        <v>22.907765523996</v>
       </c>
       <c r="S2">
-        <v>0.4704610570330462</v>
+        <v>0.01374703294944214</v>
       </c>
       <c r="T2">
-        <v>0.4704610570330464</v>
+        <v>0.01374703294944214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H3">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>6688.083019045716</v>
+        <v>10.877736223656</v>
       </c>
       <c r="R3">
-        <v>60192.74717141144</v>
+        <v>97.89962601290399</v>
       </c>
       <c r="S3">
-        <v>0.05759611687704159</v>
+        <v>0.05874991967801009</v>
       </c>
       <c r="T3">
-        <v>0.05759611687704159</v>
+        <v>0.05874991967801009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H4">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>17075.61215302328</v>
+        <v>4.962655309532222</v>
       </c>
       <c r="R4">
-        <v>153680.5093772095</v>
+        <v>44.66389778579</v>
       </c>
       <c r="S4">
-        <v>0.1470509487564478</v>
+        <v>0.02680296661272383</v>
       </c>
       <c r="T4">
-        <v>0.1470509487564478</v>
+        <v>0.02680296661272383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.205225</v>
       </c>
       <c r="I5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>366.3875213868916</v>
+        <v>10.49571174165</v>
       </c>
       <c r="R5">
-        <v>3297.487692482025</v>
+        <v>94.46140567484998</v>
       </c>
       <c r="S5">
-        <v>0.003155238719973302</v>
+        <v>0.05668663121693517</v>
       </c>
       <c r="T5">
-        <v>0.003155238719973303</v>
+        <v>0.05668663121693518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.205225</v>
       </c>
       <c r="I6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
         <v>44.85493153709999</v>
@@ -818,10 +818,10 @@
         <v>403.6943838339</v>
       </c>
       <c r="S6">
-        <v>0.0003862795769678006</v>
+        <v>0.2422584599207692</v>
       </c>
       <c r="T6">
-        <v>0.0003862795769678006</v>
+        <v>0.2422584599207692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.205225</v>
       </c>
       <c r="I7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>114.5209190580917</v>
+        <v>20.46377661440278</v>
       </c>
       <c r="R7">
-        <v>1030.688271522825</v>
+        <v>184.173989529625</v>
       </c>
       <c r="S7">
-        <v>0.0009862258318493787</v>
+        <v>0.1105234772829259</v>
       </c>
       <c r="T7">
-        <v>0.000986225831849379</v>
+        <v>0.1105234772829259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H8">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>25924.04017703976</v>
+        <v>12.591502131198</v>
       </c>
       <c r="R8">
-        <v>233316.3615933579</v>
+        <v>113.323519180782</v>
       </c>
       <c r="S8">
-        <v>0.2232514225242003</v>
+        <v>0.06800585375701876</v>
       </c>
       <c r="T8">
-        <v>0.2232514225242003</v>
+        <v>0.06800585375701876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H9">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>3173.746318937135</v>
+        <v>53.811592767252</v>
       </c>
       <c r="R9">
-        <v>28563.71687043422</v>
+        <v>484.304334905268</v>
       </c>
       <c r="S9">
-        <v>0.02733151837425394</v>
+        <v>0.2906327831287759</v>
       </c>
       <c r="T9">
-        <v>0.02733151837425394</v>
+        <v>0.2906327831287759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H10">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>8103.01861683356</v>
+        <v>24.54999653145056</v>
       </c>
       <c r="R10">
-        <v>72927.16755150205</v>
+        <v>220.949968783055</v>
       </c>
       <c r="S10">
-        <v>0.0697811923062194</v>
+        <v>0.132592875453399</v>
       </c>
       <c r="T10">
-        <v>0.06978119230621942</v>
+        <v>0.132592875453399</v>
       </c>
     </row>
   </sheetData>
